--- a/docs/assets/Mapning-XDIS91-CareCommunication_v500.xlsx
+++ b/docs/assets/Mapning-XDIS91-CareCommunication_v500.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://medcomdk-my.sharepoint.com/personal/rch_medcom_dk/Documents/Skrivebord/Konverteringsøsning udgivelse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEE4AD5E-0612-47D9-8486-6AFE6A8EEF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA40D189-8486-44B7-8226-F722FCEB384F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="770" activeTab="3" xr2:uid="{51F46B4B-F1EE-4E35-81E4-1D9BBBC1F172}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="770" activeTab="2" xr2:uid="{51F46B4B-F1EE-4E35-81E4-1D9BBBC1F172}"/>
   </bookViews>
   <sheets>
     <sheet name="XDIS91 -&gt; CareCommunication" sheetId="6" r:id="rId1"/>
@@ -308,9 +308,6 @@
     <t>Communication.payload.extension:authorContact.value</t>
   </si>
   <si>
-    <t>Anvendes som relevant telefon nummer, hvis medsendt. Hvis ikke medsendt, laves der opslag i SOR. Hvis ikke der findes et nummer i SOR sættes værdien til "0000 0000"</t>
-  </si>
-  <si>
     <t>Sender speciality code</t>
   </si>
   <si>
@@ -895,9 +892,6 @@
   </si>
   <si>
     <t>Emessage.BinaryLetter.Sender.TelephoneSubscriberIdentifier</t>
-  </si>
-  <si>
-    <t>Anvendes som relevant telefonnummer, hvis medsendt. Hvis ikke medsendt, laves der opslag i SOR. Hvis ikke der findes et nummer i SOR sættes værdien til "0000 0000"</t>
   </si>
   <si>
     <t>Emessage.BinaryLetter.Sender.MedicalSpecialityCode</t>
@@ -1119,6 +1113,38 @@
 Hvis der medsendes flere end én identifier, gælder følgende regler:
 1) Hvis der medsendes ét almindeligt CPR og ét eller flere erstatnings-CPR, indsættes det almindelige CPR i patient.id, mens erstatnings-CPR indsættes i Text01.
 2) Hvis der medsendes to erstatnings-CPR-numre, indsættes X-eCPR  i patient.alternative.id og D-eCPR i Text01.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anvendes som relevant telefon nummer, hvis medsendt. Hvis ikke medsendt, laves der opslag i SOR. Hvis ikke der findes et nummer i SOR sættes værdien til "0000 0000".
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default kode for Communication.payload.extension:authorContact.system er #phone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Anvendes som relevant telefonnummer, hvis medsendt. Hvis ikke medsendt, laves der opslag i SOR. Hvis ikke der findes et nummer i SOR sættes værdien til "0000 0000"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default kode for Communication.payload.extension:authorContact.system er #phone</t>
     </r>
   </si>
 </sst>
@@ -1387,7 +1413,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1691,12 +1717,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Advarselstekst" xfId="5" builtinId="11"/>
@@ -2698,8 +2725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268600A4-E78C-42A9-8BF4-3FD7F0A9067F}">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2955,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G11" s="50"/>
     </row>
@@ -3048,7 +3075,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G17" s="50"/>
     </row>
@@ -3311,7 +3338,7 @@
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
     </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
         <v>86</v>
       </c>
@@ -3328,16 +3355,16 @@
         <v>18</v>
       </c>
       <c r="F31" s="50" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="G31" s="50"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="50" t="s">
         <v>90</v>
-      </c>
-      <c r="B32" s="50" t="s">
-        <v>91</v>
       </c>
       <c r="C32" s="55" t="s">
         <v>18</v>
@@ -3353,10 +3380,10 @@
     </row>
     <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>92</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>93</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>9</v>
@@ -3374,10 +3401,10 @@
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>94</v>
-      </c>
-      <c r="B34" s="49" t="s">
-        <v>95</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>9</v>
@@ -3389,16 +3416,16 @@
         <v>18</v>
       </c>
       <c r="F34" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B35" s="49" t="s">
         <v>97</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>98</v>
       </c>
       <c r="C35" s="41" t="s">
         <v>9</v>
@@ -3435,7 +3462,7 @@
     </row>
     <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B37" s="49" t="s">
         <v>18</v>
@@ -3456,10 +3483,10 @@
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>100</v>
-      </c>
-      <c r="B38" s="49" t="s">
-        <v>101</v>
       </c>
       <c r="C38" s="41" t="s">
         <v>18</v>
@@ -3475,10 +3502,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>102</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>103</v>
       </c>
       <c r="C39" s="41" t="s">
         <v>18</v>
@@ -3494,10 +3521,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>104</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>105</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>18</v>
@@ -3513,10 +3540,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="41" t="s">
         <v>18</v>
@@ -3532,10 +3559,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>108</v>
-      </c>
-      <c r="B42" s="49" t="s">
-        <v>109</v>
       </c>
       <c r="C42" s="41" t="s">
         <v>18</v>
@@ -3551,10 +3578,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="49" t="s">
         <v>110</v>
-      </c>
-      <c r="B43" s="49" t="s">
-        <v>111</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>18</v>
@@ -3570,10 +3597,10 @@
     </row>
     <row r="44" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="49" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" s="49" t="s">
-        <v>113</v>
       </c>
       <c r="C44" s="41" t="s">
         <v>18</v>
@@ -3589,58 +3616,58 @@
     </row>
     <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="C45" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="55" t="s">
+      <c r="D45" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="E45" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>117</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>118</v>
       </c>
       <c r="G45" s="102"/>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="C46" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="50" t="s">
+      <c r="E46" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="50" t="s">
         <v>121</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>122</v>
       </c>
       <c r="G46" s="50"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="C47" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="E47" s="55" t="s">
         <v>9</v>
@@ -3650,16 +3677,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="C48" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="50" t="s">
         <v>127</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="50" t="s">
-        <v>128</v>
       </c>
       <c r="E48" s="55" t="s">
         <v>18</v>
@@ -3669,16 +3696,16 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="C49" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="50" t="s">
         <v>130</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="50" t="s">
-        <v>131</v>
       </c>
       <c r="E49" s="55" t="s">
         <v>18</v>
@@ -3688,10 +3715,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="50" t="s">
-        <v>133</v>
       </c>
       <c r="C50" s="55" t="s">
         <v>18</v>
@@ -3707,16 +3734,16 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="C51" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" s="50" t="s">
-        <v>136</v>
       </c>
       <c r="E51" s="55" t="s">
         <v>18</v>
@@ -3726,16 +3753,16 @@
     </row>
     <row r="52" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="C52" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="E52" s="55" t="s">
         <v>18</v>
@@ -3745,10 +3772,10 @@
     </row>
     <row r="53" spans="1:7" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B53" s="50" t="s">
         <v>140</v>
-      </c>
-      <c r="B53" s="50" t="s">
-        <v>141</v>
       </c>
       <c r="C53" s="55" t="s">
         <v>18</v>
@@ -3764,217 +3791,217 @@
     </row>
     <row r="54" spans="1:7" s="37" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="C54" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="49" t="s">
+      <c r="E54" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="49" t="s">
         <v>144</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="49" t="s">
-        <v>145</v>
       </c>
       <c r="G54" s="50"/>
     </row>
     <row r="55" spans="1:7" s="37" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="49" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="49" t="s">
+      <c r="E55" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="49" t="s">
         <v>147</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" s="49" t="s">
-        <v>148</v>
       </c>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="56" t="s">
+      <c r="E56" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="56" t="s">
         <v>150</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="56" t="s">
-        <v>151</v>
       </c>
       <c r="G56" s="50"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="56" t="s">
+      <c r="E57" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="E57" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>154</v>
       </c>
       <c r="G57" s="50"/>
     </row>
     <row r="58" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="C58" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="50" t="s">
+      <c r="E58" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="59" t="s">
         <v>157</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="59" t="s">
-        <v>158</v>
       </c>
       <c r="G58" s="50"/>
     </row>
     <row r="59" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="C59" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="50" t="s">
+      <c r="E59" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="50" t="s">
         <v>161</v>
-      </c>
-      <c r="E59" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="50" t="s">
-        <v>162</v>
       </c>
       <c r="G59" s="50"/>
     </row>
     <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="C60" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="50" t="s">
+      <c r="E60" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="50" t="s">
         <v>165</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>166</v>
       </c>
       <c r="G60" s="50"/>
     </row>
     <row r="61" spans="1:7" ht="360" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="B61" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D61" s="60" t="s">
+      <c r="E61" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="50" t="s">
         <v>168</v>
-      </c>
-      <c r="E61" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="G61" s="50"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" s="50" t="s">
+      <c r="E62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="50" t="s">
         <v>171</v>
-      </c>
-      <c r="E62" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>172</v>
       </c>
       <c r="G62" s="50"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="B63" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="50" t="s">
+      <c r="E63" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="50" t="s">
         <v>174</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F63" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="G63" s="50"/>
     </row>
     <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="49" t="s">
         <v>18</v>
@@ -3993,7 +4020,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="49" t="s">
         <v>18</v>
@@ -4012,70 +4039,70 @@
     </row>
     <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B66" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B66" s="49" t="s">
+      <c r="C66" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="D66" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="D66" s="49" t="s">
-        <v>181</v>
-      </c>
       <c r="E66" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F66" s="49"/>
       <c r="G66" s="50"/>
     </row>
     <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="C67" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="C67" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>184</v>
-      </c>
       <c r="E67" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F67" s="49"/>
       <c r="G67" s="50"/>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="49" t="s">
+      <c r="C68" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C68" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="49" t="s">
-        <v>187</v>
-      </c>
       <c r="E68" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F68" s="49"/>
       <c r="G68" s="50"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B69" s="49" t="s">
-        <v>189</v>
-      </c>
       <c r="C69" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D69" s="49" t="s">
         <v>18</v>
@@ -4088,47 +4115,47 @@
     </row>
     <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B70" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="49" t="s">
+      <c r="E70" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>191</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>192</v>
       </c>
       <c r="G70" s="50"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B71" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="49" t="s">
-        <v>194</v>
-      </c>
       <c r="E71" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F71" s="49"/>
       <c r="G71" s="50"/>
     </row>
     <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B72" s="49" t="s">
         <v>18</v>
@@ -4147,7 +4174,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B73" s="49" t="s">
         <v>18</v>
@@ -4166,13 +4193,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B74" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B74" s="50" t="s">
-        <v>198</v>
-      </c>
       <c r="C74" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="50" t="s">
         <v>18</v>
@@ -4185,68 +4212,68 @@
     </row>
     <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C75" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" s="50" t="s">
-        <v>200</v>
-      </c>
       <c r="E75" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F75" s="50"/>
       <c r="G75" s="50"/>
     </row>
     <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B76" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="50" t="s">
+      <c r="E76" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F76" s="50" t="s">
         <v>202</v>
-      </c>
-      <c r="E76" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F76" s="50" t="s">
-        <v>203</v>
       </c>
       <c r="G76" s="50"/>
     </row>
     <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B77" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="50" t="s">
+      <c r="E77" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="50" t="s">
         <v>205</v>
-      </c>
-      <c r="E77" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="F77" s="50" t="s">
-        <v>206</v>
       </c>
       <c r="G77" s="50"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B78" s="50" t="s">
         <v>18</v>
@@ -4255,26 +4282,26 @@
         <v>18</v>
       </c>
       <c r="D78" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E78" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F78" s="50"/>
       <c r="G78" s="50"/>
     </row>
     <row r="79" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="49" t="s">
         <v>208</v>
-      </c>
-      <c r="B79" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" s="49" t="s">
-        <v>209</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>9</v>
@@ -4420,7 +4447,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="56"/>
       <c r="H4" s="15"/>
@@ -4472,7 +4499,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="5"/>
@@ -4499,7 +4526,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="5"/>
@@ -4526,7 +4553,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="50"/>
       <c r="H8" s="5"/>
@@ -4563,7 +4590,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>46</v>
@@ -4578,7 +4605,7 @@
         <v>9</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G10" s="56"/>
       <c r="H10" s="15"/>
@@ -4665,7 +4692,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="60" t="s">
         <v>33</v>
@@ -4690,7 +4717,7 @@
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>57</v>
@@ -4805,7 +4832,7 @@
         <v>9</v>
       </c>
       <c r="F19" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G19" s="73"/>
       <c r="H19" s="29"/>
@@ -4817,7 +4844,7 @@
     </row>
     <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="50" t="s">
         <v>57</v>
@@ -4826,7 +4853,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>9</v>
@@ -4842,7 +4869,7 @@
     </row>
     <row r="21" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="50" t="s">
         <v>68</v>
@@ -4867,7 +4894,7 @@
     </row>
     <row r="22" spans="1:13" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="50" t="s">
         <v>72</v>
@@ -4876,7 +4903,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>18</v>
@@ -4892,7 +4919,7 @@
     </row>
     <row r="23" spans="1:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="56" t="s">
         <v>61</v>
@@ -4901,13 +4928,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G23" s="63"/>
       <c r="H23" s="29"/>
@@ -4919,22 +4946,22 @@
     </row>
     <row r="24" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="56" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G24" s="56"/>
       <c r="H24" s="24"/>
@@ -4946,22 +4973,22 @@
     </row>
     <row r="25" spans="1:13" ht="270" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="49" t="s">
+      <c r="E25" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>116</v>
-      </c>
       <c r="F25" s="49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G25" s="56"/>
       <c r="H25" s="24"/>
@@ -4973,22 +5000,22 @@
     </row>
     <row r="26" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="49" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G26" s="63"/>
       <c r="H26" s="17"/>
@@ -5000,16 +5027,16 @@
     </row>
     <row r="27" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="49" t="s">
         <v>123</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="49" t="s">
-        <v>124</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>9</v>
@@ -5020,21 +5047,21 @@
       <c r="I27" s="23"/>
       <c r="J27" s="24"/>
       <c r="K27" s="26"/>
-      <c r="L27" s="106"/>
-      <c r="M27" s="106"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="105"/>
     </row>
     <row r="28" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="49" t="s">
         <v>126</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>127</v>
       </c>
       <c r="E28" s="41" t="s">
         <v>18</v>
@@ -5045,21 +5072,21 @@
       <c r="I28" s="23"/>
       <c r="J28" s="24"/>
       <c r="K28" s="26"/>
-      <c r="L28" s="106"/>
-      <c r="M28" s="106"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="105"/>
     </row>
     <row r="29" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="49" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="49" t="s">
-        <v>130</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>18</v>
@@ -5075,16 +5102,16 @@
     </row>
     <row r="30" spans="1:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="49" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="49" t="s">
-        <v>135</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>18</v>
@@ -5100,16 +5127,16 @@
     </row>
     <row r="31" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="49" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="49" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>18</v>
@@ -5124,22 +5151,22 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="49" t="s">
+      <c r="C32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="49" t="s">
         <v>223</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="49" t="s">
-        <v>224</v>
       </c>
       <c r="G32" s="73"/>
       <c r="H32"/>
@@ -5151,10 +5178,10 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>225</v>
-      </c>
-      <c r="B33" s="49" t="s">
-        <v>226</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>18</v>
@@ -5176,10 +5203,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>18</v>
@@ -5216,7 +5243,7 @@
         <v>18</v>
       </c>
       <c r="F35" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G35" s="63"/>
       <c r="H35" s="29"/>
@@ -5228,22 +5255,22 @@
     </row>
     <row r="36" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="E36" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="56" t="s">
         <v>144</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>145</v>
       </c>
       <c r="G36" s="73"/>
       <c r="H36" s="39"/>
@@ -5255,10 +5282,10 @@
     </row>
     <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="75" t="s">
         <v>146</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>147</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>9</v>
@@ -5280,11 +5307,11 @@
     </row>
     <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="49" t="s">
-        <v>150</v>
-      </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
       </c>
@@ -5295,7 +5322,7 @@
         <v>18</v>
       </c>
       <c r="F38" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G38" s="63"/>
       <c r="H38" s="29"/>
@@ -5307,11 +5334,11 @@
     </row>
     <row r="39" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>153</v>
-      </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
@@ -5322,7 +5349,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G39" s="63"/>
       <c r="H39" s="29"/>
@@ -5334,22 +5361,22 @@
     </row>
     <row r="40" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>156</v>
-      </c>
       <c r="E40" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G40" s="63"/>
       <c r="H40" s="29"/>
@@ -5361,16 +5388,16 @@
     </row>
     <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="49" t="s">
         <v>159</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="49" t="s">
-        <v>160</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>18</v>
@@ -5386,22 +5413,22 @@
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>164</v>
-      </c>
       <c r="E42" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="76" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G42" s="50"/>
       <c r="H42" s="29"/>
@@ -5416,7 +5443,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>9</v>
@@ -5441,7 +5468,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>9</v>
@@ -5463,22 +5490,22 @@
     </row>
     <row r="45" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="50" t="s">
-        <v>171</v>
-      </c>
       <c r="C45" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G45" s="56"/>
       <c r="H45" s="24"/>
@@ -5490,22 +5517,22 @@
     </row>
     <row r="46" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="50" t="s">
-        <v>174</v>
-      </c>
       <c r="C46" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G46" s="56"/>
       <c r="H46" s="24"/>
@@ -5517,10 +5544,10 @@
     </row>
     <row r="47" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>234</v>
-      </c>
-      <c r="B47" s="50" t="s">
-        <v>235</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>9</v>
@@ -5542,22 +5569,22 @@
     </row>
     <row r="48" spans="1:13" ht="32.25" x14ac:dyDescent="0.4">
       <c r="A48" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="49" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="49" t="s">
+      <c r="E48" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="61" t="s">
-        <v>180</v>
-      </c>
       <c r="F48" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G48" s="56"/>
       <c r="H48" s="12"/>
@@ -5569,19 +5596,19 @@
     </row>
     <row r="49" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="49" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="E49" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F49" s="49"/>
       <c r="G49" s="56"/>
@@ -5589,54 +5616,54 @@
       <c r="I49" s="31"/>
       <c r="J49" s="15"/>
       <c r="K49" s="31"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="105"/>
+      <c r="L49" s="106"/>
+      <c r="M49" s="106"/>
     </row>
     <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="49" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="49" t="s">
-        <v>186</v>
-      </c>
       <c r="E50" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G50" s="71"/>
       <c r="H50" s="15"/>
       <c r="I50" s="31"/>
       <c r="J50" s="15"/>
       <c r="K50" s="31"/>
-      <c r="L50" s="105"/>
-      <c r="M50" s="105"/>
+      <c r="L50" s="106"/>
+      <c r="M50" s="106"/>
     </row>
     <row r="51" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="49" t="s">
-        <v>191</v>
-      </c>
       <c r="C51" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="F51" s="49" t="s">
         <v>237</v>
-      </c>
-      <c r="E51" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="F51" s="49" t="s">
-        <v>238</v>
       </c>
       <c r="G51" s="56"/>
       <c r="H51" s="15"/>
@@ -5648,13 +5675,13 @@
     </row>
     <row r="52" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="49" t="s">
-        <v>194</v>
-      </c>
       <c r="C52" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>18</v>
@@ -5673,10 +5700,10 @@
     </row>
     <row r="53" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>18</v>
@@ -5698,10 +5725,10 @@
     </row>
     <row r="54" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B54" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>18</v>
@@ -5723,10 +5750,10 @@
     </row>
     <row r="55" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="49" t="s">
         <v>241</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>242</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>18</v>
@@ -5748,10 +5775,10 @@
     </row>
     <row r="56" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>18</v>
@@ -5773,22 +5800,22 @@
     </row>
     <row r="57" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="49" t="s">
-        <v>189</v>
-      </c>
       <c r="E57" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F57" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G57" s="63"/>
       <c r="H57" s="29"/>
@@ -5800,13 +5827,13 @@
     </row>
     <row r="58" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="50" t="s">
-        <v>202</v>
-      </c>
       <c r="C58" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="50" t="s">
         <v>18</v>
@@ -5825,13 +5852,13 @@
     </row>
     <row r="59" spans="1:13" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A59" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="50" t="s">
-        <v>205</v>
-      </c>
       <c r="C59" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="50" t="s">
         <v>18</v>
@@ -5850,16 +5877,16 @@
     </row>
     <row r="60" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="50" t="s">
-        <v>246</v>
-      </c>
       <c r="C60" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" s="62" t="s">
         <v>18</v>
@@ -5875,13 +5902,13 @@
     </row>
     <row r="61" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="50" t="s">
         <v>18</v>
@@ -5900,10 +5927,10 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>18</v>
@@ -5925,10 +5952,10 @@
     </row>
     <row r="63" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A63" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" s="55" t="s">
         <v>18</v>
@@ -5950,10 +5977,10 @@
     </row>
     <row r="64" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>18</v>
@@ -5975,22 +6002,22 @@
     </row>
     <row r="65" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="49" t="s">
-        <v>251</v>
-      </c>
       <c r="C65" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G65" s="63"/>
       <c r="H65" s="17"/>
@@ -6002,22 +6029,22 @@
     </row>
     <row r="66" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B66" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E66" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F66" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G66" s="63"/>
       <c r="H66" s="17"/>
@@ -6029,10 +6056,10 @@
     </row>
     <row r="67" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="50" t="s">
         <v>208</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>209</v>
       </c>
       <c r="C67" s="55" t="s">
         <v>9</v>
@@ -6069,73 +6096,73 @@
         <v>9</v>
       </c>
       <c r="F68" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G68" s="56"/>
       <c r="H68" s="24"/>
       <c r="I68" s="26"/>
       <c r="J68" s="24"/>
       <c r="K68" s="23"/>
-      <c r="L68" s="105"/>
-      <c r="M68" s="105"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="106"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="C69" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="50" t="s">
         <v>254</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="50" t="s">
-        <v>255</v>
       </c>
       <c r="G69" s="56"/>
       <c r="H69" s="24"/>
       <c r="I69" s="26"/>
       <c r="J69" s="24"/>
       <c r="K69" s="23"/>
-      <c r="L69" s="105"/>
-      <c r="M69" s="105"/>
+      <c r="L69" s="106"/>
+      <c r="M69" s="106"/>
     </row>
     <row r="70" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="C70" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="50" t="s">
-        <v>258</v>
       </c>
       <c r="G70" s="56"/>
       <c r="H70" s="24"/>
       <c r="I70" s="26"/>
       <c r="J70" s="24"/>
       <c r="K70" s="23"/>
-      <c r="L70" s="105"/>
-      <c r="M70" s="105"/>
+      <c r="L70" s="106"/>
+      <c r="M70" s="106"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B71" s="79" t="s">
         <v>33</v>
@@ -6185,8 +6212,8 @@
       <c r="I73" s="26"/>
       <c r="J73" s="24"/>
       <c r="K73" s="23"/>
-      <c r="L73" s="105"/>
-      <c r="M73" s="105"/>
+      <c r="L73" s="106"/>
+      <c r="M73" s="106"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="54"/>
@@ -6200,8 +6227,8 @@
       <c r="I74" s="26"/>
       <c r="J74" s="24"/>
       <c r="K74" s="23"/>
-      <c r="L74" s="105"/>
-      <c r="M74" s="105"/>
+      <c r="L74" s="106"/>
+      <c r="M74" s="106"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F75" s="25"/>
@@ -6329,6 +6356,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L52:L58"/>
+    <mergeCell ref="M52:M58"/>
+    <mergeCell ref="L68:L70"/>
+    <mergeCell ref="M68:M70"/>
+    <mergeCell ref="L73:L74"/>
+    <mergeCell ref="M73:M74"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="M49:M50"/>
     <mergeCell ref="L30:L32"/>
     <mergeCell ref="M30:M32"/>
     <mergeCell ref="L33:L42"/>
@@ -6337,18 +6376,6 @@
     <mergeCell ref="M14:M25"/>
     <mergeCell ref="L27:L28"/>
     <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L43:L44"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="M49:M50"/>
-    <mergeCell ref="L52:L58"/>
-    <mergeCell ref="M52:M58"/>
-    <mergeCell ref="L68:L70"/>
-    <mergeCell ref="M68:M70"/>
-    <mergeCell ref="L73:L74"/>
-    <mergeCell ref="M73:M74"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6361,10 +6388,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7BD392-D2FE-48CB-ABD4-43BFAD774472}">
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6391,10 +6418,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>3</v>
@@ -6482,7 +6509,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I4" s="50"/>
     </row>
@@ -6624,7 +6651,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="41" t="s">
         <v>9</v>
@@ -6640,7 +6667,7 @@
     </row>
     <row r="11" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>18</v>
@@ -6661,7 +6688,7 @@
         <v>9</v>
       </c>
       <c r="H11" s="101" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I11" s="50"/>
     </row>
@@ -6676,7 +6703,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>9</v>
@@ -6701,7 +6728,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>9</v>
@@ -6726,7 +6753,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>9</v>
@@ -6751,7 +6778,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>9</v>
@@ -6776,7 +6803,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E16" s="41" t="s">
         <v>9</v>
@@ -6788,7 +6815,7 @@
         <v>9</v>
       </c>
       <c r="H16" s="49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I16" s="50"/>
     </row>
@@ -6803,7 +6830,7 @@
         <v>9</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E17" s="41" t="s">
         <v>9</v>
@@ -6815,7 +6842,7 @@
         <v>9</v>
       </c>
       <c r="H17" s="49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="I17" s="50"/>
     </row>
@@ -6857,7 +6884,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E19" s="55" t="s">
         <v>9</v>
@@ -6884,7 +6911,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>9</v>
@@ -6911,7 +6938,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="81" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E21" s="55" t="s">
         <v>9</v>
@@ -6963,7 +6990,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="55" t="s">
         <v>9</v>
@@ -6990,7 +7017,7 @@
         <v>18</v>
       </c>
       <c r="D24" s="81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E24" s="55" t="s">
         <v>18</v>
@@ -7015,7 +7042,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E25" s="55" t="s">
         <v>18</v>
@@ -7040,7 +7067,7 @@
         <v>18</v>
       </c>
       <c r="D26" s="81" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E26" s="55" t="s">
         <v>18</v>
@@ -7065,7 +7092,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" s="55" t="s">
         <v>18</v>
@@ -7090,7 +7117,7 @@
         <v>18</v>
       </c>
       <c r="D28" s="81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E28" s="55" t="s">
         <v>18</v>
@@ -7115,7 +7142,7 @@
         <v>18</v>
       </c>
       <c r="D29" s="81" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E29" s="55" t="s">
         <v>18</v>
@@ -7129,7 +7156,7 @@
       <c r="H29" s="50"/>
       <c r="I29" s="50"/>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
         <v>86</v>
       </c>
@@ -7140,7 +7167,7 @@
         <v>18</v>
       </c>
       <c r="D30" s="81" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E30" s="55" t="s">
         <v>18</v>
@@ -7152,22 +7179,22 @@
         <v>18</v>
       </c>
       <c r="H30" s="50" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="I30" s="50"/>
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" s="55" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E31" s="55" t="s">
         <v>18</v>
@@ -7183,16 +7210,16 @@
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="49" t="s">
-        <v>93</v>
-      </c>
       <c r="C32" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E32" s="41" t="s">
         <v>9</v>
@@ -7210,16 +7237,16 @@
     </row>
     <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="49" t="s">
-        <v>95</v>
-      </c>
       <c r="C33" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E33" s="41" t="s">
         <v>9</v>
@@ -7237,16 +7264,16 @@
     </row>
     <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="49" t="s">
-        <v>98</v>
-      </c>
       <c r="C34" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E34" s="41" t="s">
         <v>9</v>
@@ -7262,7 +7289,7 @@
     </row>
     <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="49" t="s">
         <v>18</v>
@@ -7289,16 +7316,16 @@
     </row>
     <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C36" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E36" s="41" t="s">
         <v>18</v>
@@ -7314,16 +7341,16 @@
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="49" t="s">
-        <v>103</v>
-      </c>
       <c r="C37" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="80" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E37" s="41" t="s">
         <v>18</v>
@@ -7339,16 +7366,16 @@
     </row>
     <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B38" s="49" t="s">
-        <v>105</v>
-      </c>
       <c r="C38" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E38" s="41" t="s">
         <v>18</v>
@@ -7364,16 +7391,16 @@
     </row>
     <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="49" t="s">
-        <v>107</v>
-      </c>
       <c r="C39" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>18</v>
@@ -7389,16 +7416,16 @@
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="49" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="49" t="s">
-        <v>109</v>
-      </c>
       <c r="C40" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E40" s="41" t="s">
         <v>18</v>
@@ -7414,16 +7441,16 @@
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B41" s="49" t="s">
-        <v>111</v>
-      </c>
       <c r="C41" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>18</v>
@@ -7439,16 +7466,16 @@
     </row>
     <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="49" t="s">
-        <v>113</v>
-      </c>
       <c r="C42" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D42" s="80" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>18</v>
@@ -7464,76 +7491,76 @@
     </row>
     <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="C43" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="D43" s="81" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="81" t="s">
-        <v>294</v>
-      </c>
-      <c r="E43" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F43" s="50" t="s">
+      <c r="G43" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="H43" s="50" t="s">
         <v>117</v>
-      </c>
-      <c r="G43" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="H43" s="50" t="s">
-        <v>118</v>
       </c>
       <c r="I43" s="50"/>
     </row>
     <row r="44" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="C44" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="81" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>295</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>121</v>
-      </c>
       <c r="G44" s="55" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H44" s="50" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I44" s="50"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="C45" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E45" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="50" t="s">
         <v>124</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="50" t="s">
-        <v>125</v>
       </c>
       <c r="G45" s="55" t="s">
         <v>9</v>
@@ -7543,22 +7570,22 @@
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="C46" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="E46" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="50" t="s">
         <v>127</v>
-      </c>
-      <c r="C46" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="E46" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>128</v>
       </c>
       <c r="G46" s="55" t="s">
         <v>18</v>
@@ -7568,22 +7595,22 @@
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="C47" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>130</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" s="50" t="s">
-        <v>131</v>
       </c>
       <c r="G47" s="55" t="s">
         <v>18</v>
@@ -7593,10 +7620,10 @@
     </row>
     <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48" s="50" t="s">
         <v>132</v>
-      </c>
-      <c r="B48" s="50" t="s">
-        <v>133</v>
       </c>
       <c r="C48" s="55" t="s">
         <v>18</v>
@@ -7618,22 +7645,22 @@
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="C49" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="50" t="s">
         <v>135</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" s="50" t="s">
-        <v>136</v>
       </c>
       <c r="G49" s="55" t="s">
         <v>18</v>
@@ -7643,22 +7670,22 @@
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="C50" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="50" t="s">
         <v>138</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="81" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>139</v>
       </c>
       <c r="G50" s="55" t="s">
         <v>18</v>
@@ -7668,10 +7695,10 @@
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51" s="50" t="s">
         <v>140</v>
-      </c>
-      <c r="B51" s="50" t="s">
-        <v>141</v>
       </c>
       <c r="C51" s="55" t="s">
         <v>18</v>
@@ -7702,7 +7729,7 @@
         <v>18</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E52" s="55" t="s">
         <v>9</v>
@@ -7714,7 +7741,7 @@
         <v>18</v>
       </c>
       <c r="H52" s="50" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I52" s="50"/>
     </row>
@@ -7729,7 +7756,7 @@
         <v>18</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E53" s="55" t="s">
         <v>18</v>
@@ -7741,221 +7768,221 @@
         <v>18</v>
       </c>
       <c r="H53" s="50" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I53" s="50"/>
     </row>
     <row r="54" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="49" t="s">
+      <c r="C54" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C54" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" s="49" t="s">
+      <c r="G54" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="51" t="s">
         <v>144</v>
-      </c>
-      <c r="G54" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>145</v>
       </c>
       <c r="I54" s="50"/>
     </row>
     <row r="55" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E55" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="71" t="s">
+      <c r="G55" s="84" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="71" t="s">
         <v>147</v>
-      </c>
-      <c r="G55" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="71" t="s">
-        <v>148</v>
       </c>
       <c r="I55" s="50"/>
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B56" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="56" t="s">
+      <c r="G56" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H56" s="56" t="s">
         <v>150</v>
-      </c>
-      <c r="G56" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>151</v>
       </c>
       <c r="I56" s="50"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="56" t="s">
         <v>152</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" s="56" t="s">
+      <c r="G57" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="G57" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>154</v>
       </c>
       <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="C58" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" s="50" t="s">
+      <c r="G58" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="50" t="s">
         <v>157</v>
-      </c>
-      <c r="G58" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" s="50" t="s">
-        <v>158</v>
       </c>
       <c r="I58" s="50"/>
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="C59" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" s="50" t="s">
+      <c r="G59" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="50" t="s">
         <v>161</v>
-      </c>
-      <c r="G59" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="50" t="s">
-        <v>162</v>
       </c>
       <c r="I59" s="50"/>
     </row>
     <row r="60" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="C60" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="C60" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E60" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>165</v>
-      </c>
       <c r="G60" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="50" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I60" s="50"/>
     </row>
     <row r="61" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B61" s="50"/>
       <c r="C61" s="55"/>
       <c r="D61" s="81"/>
       <c r="E61" s="81"/>
       <c r="F61" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="G61" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H61" s="50" t="s">
         <v>168</v>
-      </c>
-      <c r="G61" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H61" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="I61" s="50"/>
     </row>
     <row r="62" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B62" s="86" t="s">
         <v>18</v>
@@ -7970,157 +7997,157 @@
         <v>18</v>
       </c>
       <c r="F62" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G62" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="50" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I62" s="50"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B63" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="50" t="s">
+      <c r="G63" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="50" t="s">
         <v>171</v>
-      </c>
-      <c r="G63" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H63" s="50" t="s">
-        <v>172</v>
       </c>
       <c r="I63" s="50"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="B64" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="50" t="s">
+      <c r="G64" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="50" t="s">
         <v>174</v>
-      </c>
-      <c r="G64" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="50" t="s">
-        <v>175</v>
       </c>
       <c r="I64" s="50"/>
     </row>
     <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="B65" s="49" t="s">
+      <c r="C65" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="61" t="s">
-        <v>180</v>
-      </c>
       <c r="D65" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E65" s="61" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G65" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H65" s="49"/>
       <c r="I65" s="50"/>
     </row>
     <row r="66" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="B66" s="49" t="s">
-        <v>183</v>
-      </c>
       <c r="C66" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D66" s="49" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E66" s="61" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="72" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G66" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H66" s="49"/>
       <c r="I66" s="50"/>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="B67" s="49" t="s">
+      <c r="C67" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="E67" s="61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" s="49" t="s">
-        <v>187</v>
-      </c>
       <c r="G67" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H67" s="49"/>
       <c r="I67" s="50"/>
     </row>
     <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" s="49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D68" s="49" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E68" s="61" t="s">
         <v>9</v>
@@ -8136,63 +8163,63 @@
     </row>
     <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="B69" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="80" t="s">
-        <v>237</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="49" t="s">
-        <v>191</v>
-      </c>
       <c r="G69" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H69" s="49"/>
       <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B70" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="B70" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="49" t="s">
-        <v>194</v>
-      </c>
       <c r="G70" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H70" s="49"/>
       <c r="I70" s="50"/>
     </row>
     <row r="71" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="B71" s="50" t="s">
-        <v>198</v>
-      </c>
       <c r="C71" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D71" s="85" t="s">
         <v>18</v>
@@ -8204,93 +8231,93 @@
         <v>18</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H71" s="50"/>
       <c r="I71" s="50"/>
     </row>
     <row r="72" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B72" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F72" s="50" t="s">
         <v>199</v>
       </c>
-      <c r="C72" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F72" s="50" t="s">
-        <v>200</v>
-      </c>
       <c r="G72" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H72" s="50"/>
       <c r="I72" s="50"/>
     </row>
     <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="B73" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="50" t="s">
+      <c r="G73" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H73" s="50" t="s">
         <v>202</v>
-      </c>
-      <c r="G73" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="H73" s="50" t="s">
-        <v>203</v>
       </c>
       <c r="I73" s="50"/>
     </row>
     <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="50" t="s">
+      <c r="G74" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="H74" s="50" t="s">
         <v>205</v>
-      </c>
-      <c r="G74" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="H74" s="50" t="s">
-        <v>206</v>
       </c>
       <c r="I74" s="50"/>
     </row>
     <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B75" s="50" t="s">
         <v>18</v>
@@ -8305,32 +8332,32 @@
         <v>18</v>
       </c>
       <c r="F75" s="50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G75" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H75" s="50"/>
       <c r="I75" s="50"/>
     </row>
     <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="87" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="49" t="s">
         <v>208</v>
-      </c>
-      <c r="B76" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="E76" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="49" t="s">
-        <v>209</v>
       </c>
       <c r="G76" s="41" t="s">
         <v>9</v>
@@ -8356,6 +8383,9 @@
       <c r="G77" s="55"/>
       <c r="H77" s="50"/>
       <c r="I77" s="50"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H79" s="107"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -8370,8 +8400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E8C56-7845-49A6-99BD-BE444F662575}">
   <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8404,10 +8434,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>5</v>
@@ -8487,7 +8517,7 @@
         <v>18</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="63"/>
     </row>
@@ -8533,13 +8563,13 @@
         <v>9</v>
       </c>
       <c r="F6" s="69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I6" s="63"/>
     </row>
@@ -8560,13 +8590,13 @@
         <v>9</v>
       </c>
       <c r="F7" s="90" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I7" s="63"/>
     </row>
@@ -8593,7 +8623,7 @@
         <v>9</v>
       </c>
       <c r="H8" s="49" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="63"/>
     </row>
@@ -8614,7 +8644,7 @@
         <v>9</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G9" s="92" t="s">
         <v>9</v>
@@ -8624,7 +8654,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>46</v>
@@ -8639,13 +8669,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G10" s="92" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I10" s="50"/>
     </row>
@@ -8726,10 +8756,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="65" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B14" s="60" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C14" s="66" t="s">
         <v>9</v>
@@ -8751,7 +8781,7 @@
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B15" s="88" t="s">
         <v>57</v>
@@ -8766,7 +8796,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>9</v>
@@ -8816,7 +8846,7 @@
         <v>9</v>
       </c>
       <c r="F17" s="90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>9</v>
@@ -8841,7 +8871,7 @@
         <v>9</v>
       </c>
       <c r="F18" s="90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>9</v>
@@ -8866,19 +8896,19 @@
         <v>9</v>
       </c>
       <c r="F19" s="90" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="49" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B20" s="79" t="s">
         <v>57</v>
@@ -8887,13 +8917,13 @@
         <v>9</v>
       </c>
       <c r="D20" s="79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E20" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="93" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" s="92" t="s">
         <v>9</v>
@@ -8903,7 +8933,7 @@
     </row>
     <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B21" s="79" t="s">
         <v>68</v>
@@ -8928,7 +8958,7 @@
     </row>
     <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="79" t="s">
         <v>72</v>
@@ -8937,13 +8967,13 @@
         <v>18</v>
       </c>
       <c r="D22" s="79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E22" s="55" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="79" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G22" s="92" t="s">
         <v>18</v>
@@ -8953,7 +8983,7 @@
     </row>
     <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="95" t="s">
         <v>61</v>
@@ -8962,121 +8992,121 @@
         <v>18</v>
       </c>
       <c r="D23" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="93" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G23" s="92" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="71" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="63"/>
     </row>
     <row r="24" spans="1:9" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="95" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="95" t="s">
-        <v>98</v>
-      </c>
       <c r="E24" s="57" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="93" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G24" s="92" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I24" s="63"/>
     </row>
     <row r="25" spans="1:9" ht="230.25" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="88" t="s">
+      <c r="E25" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="E25" s="41" t="s">
-        <v>116</v>
-      </c>
       <c r="F25" s="90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="103" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I25" s="63"/>
     </row>
     <row r="26" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="C26" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>120</v>
-      </c>
       <c r="E26" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" s="90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G26" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="49" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I26" s="63"/>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>124</v>
-      </c>
       <c r="E27" s="41" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="69" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G27" s="42" t="s">
         <v>9</v>
@@ -9086,22 +9116,22 @@
     </row>
     <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="88" t="s">
-        <v>127</v>
-      </c>
       <c r="E28" s="41" t="s">
         <v>18</v>
       </c>
       <c r="F28" s="69" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G28" s="42" t="s">
         <v>18</v>
@@ -9111,16 +9141,16 @@
     </row>
     <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="88" t="s">
         <v>129</v>
-      </c>
-      <c r="B29" s="88" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="88" t="s">
-        <v>130</v>
       </c>
       <c r="E29" s="41" t="s">
         <v>18</v>
@@ -9136,16 +9166,16 @@
     </row>
     <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="88" t="s">
         <v>134</v>
-      </c>
-      <c r="B30" s="88" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="88" t="s">
-        <v>135</v>
       </c>
       <c r="E30" s="41" t="s">
         <v>18</v>
@@ -9161,16 +9191,16 @@
     </row>
     <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="88" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="88" t="s">
         <v>137</v>
-      </c>
-      <c r="B31" s="88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" s="88" t="s">
-        <v>138</v>
       </c>
       <c r="E31" s="41" t="s">
         <v>18</v>
@@ -9186,37 +9216,37 @@
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="88" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="C32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="49" t="s">
         <v>223</v>
-      </c>
-      <c r="C32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="49" t="s">
-        <v>224</v>
       </c>
       <c r="I32" s="50"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="48" t="s">
+        <v>224</v>
+      </c>
+      <c r="B33" s="88" t="s">
         <v>225</v>
-      </c>
-      <c r="B33" s="88" t="s">
-        <v>226</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>18</v>
@@ -9238,10 +9268,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B34" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="41" t="s">
         <v>18</v>
@@ -9284,23 +9314,23 @@
         <v>18</v>
       </c>
       <c r="H35" s="50" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I35" s="63"/>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="95" t="s">
+        <v>311</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="C36" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="95" t="s">
-        <v>143</v>
-      </c>
       <c r="E36" s="57" t="s">
         <v>9</v>
       </c>
@@ -9311,16 +9341,16 @@
         <v>18</v>
       </c>
       <c r="H36" s="56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I36" s="63"/>
     </row>
     <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="75" t="s">
         <v>146</v>
-      </c>
-      <c r="B37" s="75" t="s">
-        <v>147</v>
       </c>
       <c r="C37" s="41" t="s">
         <v>9</v>
@@ -9342,11 +9372,11 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="88" t="s">
-        <v>150</v>
-      </c>
       <c r="C38" s="41" t="s">
         <v>9</v>
       </c>
@@ -9363,17 +9393,17 @@
         <v>18</v>
       </c>
       <c r="H38" s="49" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I38" s="63"/>
     </row>
     <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="B39" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="B39" s="88" t="s">
-        <v>153</v>
-      </c>
       <c r="C39" s="41" t="s">
         <v>9</v>
       </c>
@@ -9390,23 +9420,23 @@
         <v>18</v>
       </c>
       <c r="H39" s="49" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I39" s="63"/>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="88" t="s">
         <v>155</v>
       </c>
-      <c r="B40" s="88" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="88" t="s">
-        <v>156</v>
-      </c>
       <c r="E40" s="41" t="s">
         <v>18</v>
       </c>
@@ -9417,22 +9447,22 @@
         <v>18</v>
       </c>
       <c r="H40" s="49" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I40" s="63"/>
     </row>
     <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="88" t="s">
         <v>159</v>
-      </c>
-      <c r="B41" s="88" t="s">
-        <v>161</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="88" t="s">
-        <v>160</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>18</v>
@@ -9448,17 +9478,17 @@
     </row>
     <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C42" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>164</v>
-      </c>
       <c r="E42" s="55" t="s">
         <v>9</v>
       </c>
@@ -9469,7 +9499,7 @@
         <v>18</v>
       </c>
       <c r="H42" s="50" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I42" s="50"/>
     </row>
@@ -9478,7 +9508,7 @@
         <v>39</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>9</v>
@@ -9490,7 +9520,7 @@
         <v>9</v>
       </c>
       <c r="F43" s="93" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G43" s="92" t="s">
         <v>9</v>
@@ -9503,7 +9533,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C44" s="55" t="s">
         <v>9</v>
@@ -9515,7 +9545,7 @@
         <v>9</v>
       </c>
       <c r="F44" s="93" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="92" t="s">
         <v>9</v>
@@ -9525,16 +9555,16 @@
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="79" t="s">
         <v>170</v>
       </c>
-      <c r="B45" s="79" t="s">
-        <v>171</v>
-      </c>
       <c r="C45" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E45" s="55" t="s">
         <v>9</v>
@@ -9546,22 +9576,22 @@
         <v>18</v>
       </c>
       <c r="H45" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I45" s="50"/>
     </row>
     <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="79" t="s">
         <v>173</v>
       </c>
-      <c r="B46" s="79" t="s">
-        <v>174</v>
-      </c>
       <c r="C46" s="55" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="97" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="55" t="s">
         <v>9</v>
@@ -9573,16 +9603,16 @@
         <v>18</v>
       </c>
       <c r="H46" s="50" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I46" s="63"/>
     </row>
     <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="79" t="s">
         <v>234</v>
-      </c>
-      <c r="B47" s="79" t="s">
-        <v>235</v>
       </c>
       <c r="C47" s="55" t="s">
         <v>9</v>
@@ -9594,7 +9624,7 @@
         <v>18</v>
       </c>
       <c r="F47" s="98" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G47" s="55" t="s">
         <v>18</v>
@@ -9604,49 +9634,49 @@
     </row>
     <row r="48" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D48" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="88" t="s">
-        <v>202</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D48" s="88" t="s">
+      <c r="E48" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E48" s="61" t="s">
-        <v>180</v>
-      </c>
       <c r="F48" s="69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G48" s="99" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="49" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I48" s="63"/>
     </row>
     <row r="49" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="B49" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="B49" s="88" t="s">
-        <v>205</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="88" t="s">
-        <v>183</v>
-      </c>
       <c r="E49" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F49" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G49" s="99" t="s">
         <v>9</v>
@@ -9656,67 +9686,67 @@
     </row>
     <row r="50" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="88" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="B50" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="88" t="s">
-        <v>186</v>
-      </c>
       <c r="E50" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F50" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G50" s="99" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="49" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I50" s="63"/>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="B51" s="88" t="s">
-        <v>191</v>
-      </c>
       <c r="C51" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D51" s="88" t="s">
         <v>18</v>
       </c>
       <c r="E51" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F51" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="G51" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="49" t="s">
         <v>237</v>
-      </c>
-      <c r="G51" s="99" t="s">
-        <v>9</v>
-      </c>
-      <c r="H51" s="49" t="s">
-        <v>238</v>
       </c>
       <c r="I51" s="63"/>
     </row>
     <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="88" t="s">
-        <v>194</v>
-      </c>
       <c r="C52" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D52" s="88" t="s">
         <v>18</v>
@@ -9735,10 +9765,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C53" s="41" t="s">
         <v>18</v>
@@ -9760,10 +9790,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B54" s="88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="41" t="s">
         <v>18</v>
@@ -9785,10 +9815,10 @@
     </row>
     <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="88" t="s">
         <v>241</v>
-      </c>
-      <c r="B55" s="88" t="s">
-        <v>242</v>
       </c>
       <c r="C55" s="41" t="s">
         <v>18</v>
@@ -9810,10 +9840,10 @@
     </row>
     <row r="56" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B56" s="88" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" s="41" t="s">
         <v>18</v>
@@ -9835,40 +9865,40 @@
     </row>
     <row r="57" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
+        <v>187</v>
+      </c>
+      <c r="B57" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="88" t="s">
         <v>188</v>
       </c>
-      <c r="B57" s="88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="88" t="s">
-        <v>189</v>
-      </c>
       <c r="E57" s="61" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F57" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G57" s="99" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="49" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I57" s="50"/>
     </row>
     <row r="58" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="B58" s="79" t="s">
         <v>201</v>
       </c>
-      <c r="B58" s="79" t="s">
-        <v>202</v>
-      </c>
       <c r="C58" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D58" s="79" t="s">
         <v>18</v>
@@ -9887,13 +9917,13 @@
     </row>
     <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="B59" s="79" t="s">
         <v>204</v>
       </c>
-      <c r="B59" s="79" t="s">
-        <v>205</v>
-      </c>
       <c r="C59" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="79" t="s">
         <v>18</v>
@@ -9912,16 +9942,16 @@
     </row>
     <row r="60" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="79" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="79" t="s">
-        <v>246</v>
-      </c>
       <c r="C60" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E60" s="62" t="s">
         <v>18</v>
@@ -9937,13 +9967,13 @@
     </row>
     <row r="61" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="79" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D61" s="79" t="s">
         <v>18</v>
@@ -9962,10 +9992,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B62" s="79" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C62" s="55" t="s">
         <v>18</v>
@@ -9987,10 +10017,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B63" s="79" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C63" s="55" t="s">
         <v>18</v>
@@ -10012,10 +10042,10 @@
     </row>
     <row r="64" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="79" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" s="55" t="s">
         <v>18</v>
@@ -10037,16 +10067,16 @@
     </row>
     <row r="65" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B65" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="B65" s="88" t="s">
-        <v>251</v>
-      </c>
       <c r="C65" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="88" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E65" s="41" t="s">
         <v>18</v>
@@ -10058,22 +10088,22 @@
         <v>18</v>
       </c>
       <c r="H65" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I65" s="63"/>
     </row>
     <row r="66" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B66" s="88" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C66" s="41" t="s">
         <v>18</v>
       </c>
       <c r="D66" s="88" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E66" s="41" t="s">
         <v>18</v>
@@ -10085,16 +10115,16 @@
         <v>18</v>
       </c>
       <c r="H66" s="49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I66" s="63"/>
     </row>
     <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="79" t="s">
         <v>208</v>
-      </c>
-      <c r="B67" s="79" t="s">
-        <v>209</v>
       </c>
       <c r="C67" s="55" t="s">
         <v>9</v>
@@ -10131,67 +10161,67 @@
         <v>9</v>
       </c>
       <c r="F68" s="93" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G68" s="92" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="50" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="I68" s="63"/>
     </row>
     <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="B69" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="B69" s="79" t="s">
+      <c r="C69" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="50" t="s">
         <v>254</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D69" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F69" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="50" t="s">
-        <v>255</v>
       </c>
       <c r="I69" s="50"/>
     </row>
     <row r="70" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B70" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="B70" s="79" t="s">
+      <c r="C70" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H70" s="50" t="s">
         <v>257</v>
-      </c>
-      <c r="C70" s="55" t="s">
-        <v>180</v>
-      </c>
-      <c r="D70" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" s="94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" s="50" t="s">
-        <v>258</v>
       </c>
       <c r="I70" s="50"/>
     </row>
@@ -10249,12 +10279,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8ef5dc-6422-4132-ba28-a9150fefde4c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="672a50b0-1df9-4341-9d54-48b9c706e195" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10487,20 +10519,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ee8ef5dc-6422-4132-ba28-a9150fefde4c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="672a50b0-1df9-4341-9d54-48b9c706e195" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912B5AAF-FD1D-4092-AB11-BCD9ECA30C35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E44D686-25A5-46EE-BE4F-34D7EEAF48C5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ee8ef5dc-6422-4132-ba28-a9150fefde4c"/>
+    <ds:schemaRef ds:uri="672a50b0-1df9-4341-9d54-48b9c706e195"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -10525,12 +10558,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E44D686-25A5-46EE-BE4F-34D7EEAF48C5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{912B5AAF-FD1D-4092-AB11-BCD9ECA30C35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ee8ef5dc-6422-4132-ba28-a9150fefde4c"/>
-    <ds:schemaRef ds:uri="672a50b0-1df9-4341-9d54-48b9c706e195"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>